--- a/examples/analytical/Ammonia/model_config.ammonia.parameter_template.xlsx
+++ b/examples/analytical/Ammonia/model_config.ammonia.parameter_template.xlsx
@@ -117,7 +117,7 @@
     <t>gridtran</t>
   </si>
   <si>
-    <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
+    <t>grid transformation function</t>
   </si>
   <si>
     <t>porosity</t>
@@ -129,13 +129,13 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
+    <t>porosity as a function of depth</t>
   </si>
   <si>
     <t>phi_Inf</t>
   </si>
   <si>
-    <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
+    <t>porosity at infinite depth</t>
   </si>
   <si>
     <t>burial</t>
@@ -159,7 +159,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
+    <t>bioburbation coefficient as a function of depth</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,39 +171,27 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>adsorption</t>
+    <t>bioirrigation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>speciation</t>
   </si>
   <si>
     <t>KNH4_ads</t>
   </si>
   <si>
-    <t>Adsorption constant</t>
+    <t>speciation constant</t>
   </si>
   <si>
     <t>BoundaryCondition</t>
   </si>
   <si>
-    <t>NH40</t>
+    <t>N_org0</t>
   </si>
   <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of NH4 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>NH4_ads0</t>
-  </si>
-  <si>
-    <t>Concentration of NH4_ads at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>N_org0</t>
-  </si>
-  <si>
     <t>Concentration of N_org at the TOP of sediment column</t>
   </si>
   <si>
@@ -211,6 +199,18 @@
   </si>
   <si>
     <t>Concentration of N_org at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TNH4_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TNH4_ads0</t>
+  </si>
+  <si>
+    <t>Concentration of TNH4_ads at the TOP of sediment column</t>
   </si>
   <si>
     <t>Reaction</t>
